--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Reports/Loan_Alerts_Report_V1.3.4.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Reports/Loan_Alerts_Report_V1.3.4.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67" xml:space="preserve">
   <si>
     <t>Report Name: </t>
   </si>
@@ -96,52 +96,49 @@
     <t>Alerts for DNR 25-Nov-2020 18:49:44</t>
   </si>
   <si>
+    <t>Facility Name</t>
+  </si>
+  <si>
+    <t>Facility FCN</t>
+  </si>
+  <si>
+    <t>S126112020105404XEZ           </t>
+  </si>
+  <si>
+    <t>3001232        </t>
+  </si>
+  <si>
+    <t>ALERT_007</t>
+  </si>
+  <si>
+    <t>Alerts for DNR 26-Nov-2020 10:59:24</t>
+  </si>
+  <si>
+    <t>CHER INPUTTERAU</t>
+  </si>
+  <si>
+    <t>S125112020115754ZSI           </t>
+  </si>
+  <si>
+    <t>3001207        </t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>S126112020194315PTW           </t>
+  </si>
+  <si>
+    <t>3001253        </t>
+  </si>
+  <si>
+    <t>Alerts for DNR 26-Nov-2020 19:48:31</t>
+  </si>
+  <si>
     <t>DNR1_30112020171528JCH                  </t>
   </si>
   <si>
     <t>1001575     </t>
-  </si>
-  <si>
-    <t>Alerts for DNR 30-Nov-2020 18:07:43</t>
-  </si>
-  <si>
-    <t>Facility Name</t>
-  </si>
-  <si>
-    <t>Facility FCN</t>
-  </si>
-  <si>
-    <t>S126112020105404XEZ           </t>
-  </si>
-  <si>
-    <t>3001232        </t>
-  </si>
-  <si>
-    <t>ALERT_007</t>
-  </si>
-  <si>
-    <t>Alerts for DNR 26-Nov-2020 10:59:24</t>
-  </si>
-  <si>
-    <t>CHER INPUTTERAU</t>
-  </si>
-  <si>
-    <t>S125112020115754ZSI           </t>
-  </si>
-  <si>
-    <t>3001207        </t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>S126112020194315PTW           </t>
-  </si>
-  <si>
-    <t>3001253        </t>
-  </si>
-  <si>
-    <t>Alerts for DNR 26-Nov-2020 19:48:31</t>
   </si>
   <si>
     <t>S130112020174439WRZ           </t>
@@ -432,7 +429,7 @@
 
 <file path=xl/worksheets/Sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
       <selection/>
@@ -566,26 +563,6 @@
       </c>
       <c r="F6" s="16">
         <v>44160.78521990</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="16">
-        <v>44165.75644675</v>
       </c>
     </row>
   </sheetData>
@@ -620,10 +597,10 @@
         <v>7</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>8</v>
@@ -646,19 +623,19 @@
         <v>18</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="G2" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H2" s="12">
         <v>44161.45865740</v>
@@ -672,19 +649,19 @@
         <v>21</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H3" s="16">
         <v>44160.50285879</v>
@@ -698,19 +675,19 @@
         <v>13</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H4" s="16">
         <v>44161.82612268</v>
@@ -718,25 +695,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="E5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>43</v>
-      </c>
       <c r="G5" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H5" s="16">
         <v>44165.74452546</v>
@@ -744,25 +721,25 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="14" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="E6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>46</v>
-      </c>
       <c r="G6" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H6" s="16">
         <v>44165.73240740</v>
@@ -776,19 +753,19 @@
         <v>13</v>
       </c>
       <c r="C7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="E7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>49</v>
-      </c>
       <c r="G7" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H7" s="16">
         <v>44161.83821759</v>
@@ -802,19 +779,19 @@
         <v>18</v>
       </c>
       <c r="C8" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="E8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="G8" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H8" s="16">
         <v>44161.45228009</v>
@@ -851,7 +828,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>8</v>
@@ -868,22 +845,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="10" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>56</v>
-      </c>
       <c r="F2" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G2" s="12">
         <v>44165.80694444</v>
@@ -897,16 +874,16 @@
         <v>13</v>
       </c>
       <c r="C3" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>59</v>
-      </c>
       <c r="F3" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G3" s="16">
         <v>44162.88348379</v>
@@ -920,16 +897,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>58</v>
-      </c>
       <c r="E4" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G4" s="16">
         <v>44162.87785879</v>
@@ -943,16 +920,16 @@
         <v>13</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>58</v>
-      </c>
       <c r="E5" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G5" s="16">
         <v>44162.88516203</v>
@@ -960,22 +937,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="14" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>63</v>
-      </c>
       <c r="F6" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G6" s="16">
         <v>44165.93454861</v>
@@ -989,16 +966,16 @@
         <v>13</v>
       </c>
       <c r="C7" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>65</v>
-      </c>
       <c r="F7" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G7" s="16">
         <v>44162.02150463</v>
@@ -1012,16 +989,16 @@
         <v>13</v>
       </c>
       <c r="C8" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>58</v>
-      </c>
       <c r="E8" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G8" s="16">
         <v>44162.88033564</v>
@@ -1046,7 +1023,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
